--- a/AmbosGrupos_SE/InstanciaClase_Explicacion_AL.xlsx
+++ b/AmbosGrupos_SE/InstanciaClase_Explicacion_AL.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galek\Desktop\Clase_SE\AmbosGrupos_SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6C7EB7-016C-495B-BC0B-16D60E1BCBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3D9CDE-A372-4CA0-8198-55016D538825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instancia_Explicacion_KNN" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
   <si>
     <t>No. Caso</t>
   </si>
@@ -94,6 +96,24 @@
   </si>
   <si>
     <t>nd</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 1</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 2</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 3</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 4</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 5</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 6</t>
   </si>
 </sst>
 </file>
@@ -987,11 +1007,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1770,4 +1790,1599 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E49DBE-CB38-4992-A82F-5209811350E6}">
+  <dimension ref="A3:V35"/>
+  <sheetViews>
+    <sheetView topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:V35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1">
+        <v>99</v>
+      </c>
+      <c r="H3" s="1">
+        <v>84</v>
+      </c>
+      <c r="I3" s="1">
+        <v>77</v>
+      </c>
+      <c r="J3" s="1">
+        <v>63</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1">
+        <v>82</v>
+      </c>
+      <c r="M3" s="1">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1">
+        <v>89</v>
+      </c>
+      <c r="P3" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>97</v>
+      </c>
+      <c r="R3" s="1">
+        <v>99</v>
+      </c>
+      <c r="S3" s="1">
+        <v>23</v>
+      </c>
+      <c r="T3" s="1">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1">
+        <v>32</v>
+      </c>
+      <c r="V3" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1">
+        <v>93</v>
+      </c>
+      <c r="E4" s="1">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1">
+        <v>75</v>
+      </c>
+      <c r="J4" s="1">
+        <v>96</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1">
+        <v>88</v>
+      </c>
+      <c r="N4" s="1">
+        <v>93</v>
+      </c>
+      <c r="O4" s="1">
+        <v>85</v>
+      </c>
+      <c r="P4" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1">
+        <v>85</v>
+      </c>
+      <c r="T4" s="1">
+        <v>50</v>
+      </c>
+      <c r="U4" s="1">
+        <v>71</v>
+      </c>
+      <c r="V4" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>93</v>
+      </c>
+      <c r="J5" s="1">
+        <v>92</v>
+      </c>
+      <c r="K5" s="1">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
+        <v>57</v>
+      </c>
+      <c r="M5" s="1">
+        <v>92</v>
+      </c>
+      <c r="N5" s="1">
+        <v>99</v>
+      </c>
+      <c r="O5" s="1">
+        <v>32</v>
+      </c>
+      <c r="P5" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>80</v>
+      </c>
+      <c r="R5" s="1">
+        <v>66</v>
+      </c>
+      <c r="S5" s="1">
+        <v>84</v>
+      </c>
+      <c r="T5" s="1">
+        <v>28</v>
+      </c>
+      <c r="U5" s="1">
+        <v>41</v>
+      </c>
+      <c r="V5" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1">
+        <v>89</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1">
+        <v>40</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>9</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>66</v>
+      </c>
+      <c r="T6" s="1">
+        <v>89</v>
+      </c>
+      <c r="U6" s="1">
+        <v>84</v>
+      </c>
+      <c r="V6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1">
+        <v>87</v>
+      </c>
+      <c r="H7" s="1">
+        <v>79</v>
+      </c>
+      <c r="I7" s="1">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1">
+        <v>88</v>
+      </c>
+      <c r="M7" s="1">
+        <v>56</v>
+      </c>
+      <c r="N7" s="1">
+        <v>33</v>
+      </c>
+      <c r="O7" s="1">
+        <v>96</v>
+      </c>
+      <c r="P7" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>82</v>
+      </c>
+      <c r="R7" s="1">
+        <v>84</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>40</v>
+      </c>
+      <c r="U7" s="1">
+        <v>16</v>
+      </c>
+      <c r="V7" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1">
+        <v>94</v>
+      </c>
+      <c r="H8" s="1">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1">
+        <v>96</v>
+      </c>
+      <c r="L8" s="1">
+        <v>73</v>
+      </c>
+      <c r="M8" s="1">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1">
+        <v>85</v>
+      </c>
+      <c r="O8" s="1">
+        <v>71</v>
+      </c>
+      <c r="P8" s="1">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>54</v>
+      </c>
+      <c r="R8" s="1">
+        <v>38</v>
+      </c>
+      <c r="S8" s="1">
+        <v>34</v>
+      </c>
+      <c r="T8" s="1">
+        <v>90</v>
+      </c>
+      <c r="U8" s="1">
+        <v>82</v>
+      </c>
+      <c r="V8" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54943E4D-429B-4CA7-8C04-E82D13DED8D1}">
+  <dimension ref="B2:W12"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:W12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1">
+        <v>99</v>
+      </c>
+      <c r="I2" s="1">
+        <v>84</v>
+      </c>
+      <c r="J2" s="1">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <v>82</v>
+      </c>
+      <c r="N2" s="1">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1">
+        <v>97</v>
+      </c>
+      <c r="S2" s="1">
+        <v>99</v>
+      </c>
+      <c r="T2" s="1">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1">
+        <v>19</v>
+      </c>
+      <c r="V2" s="1">
+        <v>32</v>
+      </c>
+      <c r="W2" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1">
+        <v>93</v>
+      </c>
+      <c r="F3" s="1">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>63</v>
+      </c>
+      <c r="J3" s="1">
+        <v>75</v>
+      </c>
+      <c r="K3" s="1">
+        <v>96</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>88</v>
+      </c>
+      <c r="O3" s="1">
+        <v>93</v>
+      </c>
+      <c r="P3" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>40</v>
+      </c>
+      <c r="T3" s="1">
+        <v>85</v>
+      </c>
+      <c r="U3" s="1">
+        <v>50</v>
+      </c>
+      <c r="V3" s="1">
+        <v>71</v>
+      </c>
+      <c r="W3" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>81</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>93</v>
+      </c>
+      <c r="K4" s="1">
+        <v>92</v>
+      </c>
+      <c r="L4" s="1">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1">
+        <v>57</v>
+      </c>
+      <c r="N4" s="1">
+        <v>92</v>
+      </c>
+      <c r="O4" s="1">
+        <v>99</v>
+      </c>
+      <c r="P4" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15</v>
+      </c>
+      <c r="R4" s="1">
+        <v>80</v>
+      </c>
+      <c r="S4" s="1">
+        <v>66</v>
+      </c>
+      <c r="T4" s="1">
+        <v>84</v>
+      </c>
+      <c r="U4" s="1">
+        <v>28</v>
+      </c>
+      <c r="V4" s="1">
+        <v>41</v>
+      </c>
+      <c r="W4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>90</v>
+      </c>
+      <c r="I5" s="1">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>67</v>
+      </c>
+      <c r="K5" s="1">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1">
+        <v>89</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>94</v>
+      </c>
+      <c r="R5" s="1">
+        <v>9</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>66</v>
+      </c>
+      <c r="U5" s="1">
+        <v>89</v>
+      </c>
+      <c r="V5" s="1">
+        <v>84</v>
+      </c>
+      <c r="W5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1">
+        <v>78</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1">
+        <v>87</v>
+      </c>
+      <c r="I6" s="1">
+        <v>79</v>
+      </c>
+      <c r="J6" s="1">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1">
+        <v>88</v>
+      </c>
+      <c r="N6" s="1">
+        <v>56</v>
+      </c>
+      <c r="O6" s="1">
+        <v>33</v>
+      </c>
+      <c r="P6" s="1">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15</v>
+      </c>
+      <c r="R6" s="1">
+        <v>82</v>
+      </c>
+      <c r="S6" s="1">
+        <v>84</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>40</v>
+      </c>
+      <c r="V6" s="1">
+        <v>16</v>
+      </c>
+      <c r="W6" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1">
+        <v>94</v>
+      </c>
+      <c r="I7" s="1">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1">
+        <v>46</v>
+      </c>
+      <c r="L7" s="1">
+        <v>96</v>
+      </c>
+      <c r="M7" s="1">
+        <v>73</v>
+      </c>
+      <c r="N7" s="1">
+        <v>22</v>
+      </c>
+      <c r="O7" s="1">
+        <v>85</v>
+      </c>
+      <c r="P7" s="1">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>89</v>
+      </c>
+      <c r="R7" s="1">
+        <v>54</v>
+      </c>
+      <c r="S7" s="1">
+        <v>38</v>
+      </c>
+      <c r="T7" s="1">
+        <v>34</v>
+      </c>
+      <c r="U7" s="1">
+        <v>90</v>
+      </c>
+      <c r="V7" s="1">
+        <v>82</v>
+      </c>
+      <c r="W7" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>